--- a/Example_Keyboards/Lenovo_x1_carbon_2017/tables/pins.xlsx
+++ b/Example_Keyboards/Lenovo_x1_carbon_2017/tables/pins.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Other\Mega\Other\Lenovo_x1_carbon_2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Other\Mega\Хобби\Lenovo_x1_carbon_2017\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D68B4BD-8366-4D15-92F5-503C36C464F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F38D27D-0F4E-4585-B646-CEB40C29156E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="5" xr2:uid="{3F5AE8A4-0D9B-4CC7-AD2C-CBBC202BCA94}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{3F5AE8A4-0D9B-4CC7-AD2C-CBBC202BCA94}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист2 (2)" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист2 (4)" sheetId="5" r:id="rId4"/>
-    <sheet name="Лист2 (3)" sheetId="4" r:id="rId5"/>
-    <sheet name="Лист2 (5)" sheetId="6" r:id="rId6"/>
+    <sheet name="normal" sheetId="3" r:id="rId3"/>
+    <sheet name="fnlock" sheetId="5" r:id="rId4"/>
+    <sheet name="modifier" sheetId="4" r:id="rId5"/>
+    <sheet name="media" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1352,7 +1352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B21B7A19-07C7-450E-97B2-7709DD01699E}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1515,8 +1515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CF7C8B-A8EA-471E-8AE2-BBC6BFF44E5A}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21:P21"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2331,14 +2331,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEA438C-8BB0-4CCA-B7CB-37AF3B9AEF19}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="A21:C21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3241,14 +3241,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8FB3F9-327E-4F08-9AAA-1415D786CC13}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4151,14 +4151,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44824334-0B45-4A36-83D6-EAAADBE1378D}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5060,14 +5064,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A25E61-DA3B-40F6-957E-2B9E615E035D}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
